--- a/tex/csv/pc1-result-fft.xlsx
+++ b/tex/csv/pc1-result-fft.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Benchmark</t>
   </si>
@@ -48,12 +48,6 @@
     <t>score per input length</t>
   </si>
   <si>
-    <t>log fit coefficient</t>
-  </si>
-  <si>
-    <t>log fit constant</t>
-  </si>
-  <si>
     <t>uk.ac.st_andrews.Benchmarker.measureFft</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
   </si>
   <si>
     <t>us/op</t>
-  </si>
-  <si>
-    <t>r2</t>
   </si>
 </sst>
 </file>
@@ -642,7 +633,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Input Length</a:t>
+              <a:t>PC1 Input Length</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -772,9 +763,23 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'pc1-result-fft'!$H$2:$H$11</c:f>
+              <c:f>'pc1-result-fft'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -813,7 +818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'pc1-result-fft'!$I$2:$I$11</c:f>
+              <c:f>'pc1-result-fft'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -860,11 +865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1952024624"/>
-        <c:axId val="-1952026256"/>
+        <c:axId val="-812846672"/>
+        <c:axId val="-812860816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1952024624"/>
+        <c:axId val="-812846672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,12 +926,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952026256"/>
+        <c:crossAx val="-812860816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1952026256"/>
+        <c:axId val="-812860816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952024624"/>
+        <c:crossAx val="-812846672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1592,16 +1597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>635794</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>897731</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>40480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1886,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1899,7 +1904,7 @@
     <col min="11" max="11" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1913,36 +1918,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -1950,37 +1946,28 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1.5056999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2">
         <v>1.5056999999999999E-2</v>
       </c>
       <c r="J2">
-        <v>1.2425999999999999</v>
-      </c>
-      <c r="K2">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.997</v>
+        <v>4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1988,28 +1975,28 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0.84836199999999995</v>
+      </c>
+      <c r="I3">
         <v>1.6967239999999999</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>5.3441000000000002E-2</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0.84836199999999995</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2017,28 +2004,28 @@
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2.1482830000000002</v>
+      </c>
+      <c r="I4">
         <v>8.5931320000000007</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>1.98621</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>2.1482830000000002</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -2046,28 +2033,28 @@
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>2.52371525</v>
+      </c>
+      <c r="I5">
         <v>20.189722</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>0.54607600000000001</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>2.52371525</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -2075,28 +2062,28 @@
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>3.3827629379999999</v>
+      </c>
+      <c r="I6">
         <v>54.124206999999998</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>1.4799439999999999</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>3.3827629379999999</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2104,28 +2091,28 @@
       <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>4.3869367810000002</v>
+      </c>
+      <c r="I7">
         <v>140.38197700000001</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>5.6275180000000002</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7">
-        <v>4.3869367810000002</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -2133,28 +2120,28 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>5.1650893130000002</v>
+      </c>
+      <c r="I8">
         <v>330.56571600000001</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>9.5550350000000002</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>64</v>
-      </c>
-      <c r="I8">
-        <v>5.1650893130000002</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2162,28 +2149,28 @@
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>6.0403159769999997</v>
+      </c>
+      <c r="I9">
         <v>773.16044499999998</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>22.144134999999999</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>128</v>
-      </c>
-      <c r="I9">
-        <v>6.0403159769999997</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2191,28 +2178,28 @@
       <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>6.9729274139999999</v>
+      </c>
+      <c r="I10">
         <v>1785.069418</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>51.390675000000002</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>256</v>
-      </c>
-      <c r="I10">
-        <v>6.9729274139999999</v>
-      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -2220,20 +2207,20 @@
       <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>512</v>
+      </c>
+      <c r="G11">
+        <v>7.888305066</v>
+      </c>
+      <c r="I11">
         <v>4038.8121940000001</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>117.057001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>512</v>
-      </c>
-      <c r="I11">
-        <v>7.888305066</v>
       </c>
     </row>
   </sheetData>
